--- a/biology/Botanique/Forêt_de_Rumilly/Forêt_de_Rumilly.xlsx
+++ b/biology/Botanique/Forêt_de_Rumilly/Forêt_de_Rumilly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Rumilly</t>
+          <t>Forêt_de_Rumilly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Rumilly est une vaste forêt française située en Champagne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Rumilly</t>
+          <t>Forêt_de_Rumilly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Forêt de Rumilly se situe au sud de Rumilly-lès-Vaudes. Elle comprenait les forêts d'Aumont et Jeugny à l'est, de Chaource au sud et le bois du Perchois au SE.
 Pour son exploitation, elle était séparée en : 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Rumilly</t>
+          <t>Forêt_de_Rumilly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,50 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'était une forêt d'un bloc qui appartenait anciennement aux comtes de Champagne, puis au comte de Troyes et a suivi le sort de la seigneurie de Rumilly. En 1101, Hugues, comte de Troyes, faisait donation d'une moitié de la seigneurie de Rumilly aux moines de l'abbaye Saint-Quentin de Troyes. Ceux-ci la vendirent aux moines de Molesme en octobre 1219. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'était une forêt d'un bloc qui appartenait anciennement aux comtes de Champagne, puis au comte de Troyes et a suivi le sort de la seigneurie de Rumilly. En 1101, Hugues, comte de Troyes, faisait donation d'une moitié de la seigneurie de Rumilly aux moines de l'abbaye Saint-Quentin de Troyes. Ceux-ci la vendirent aux moines de Molesme en octobre 1219. 
 Elle se trouve ainsi séparée, administrativement en deux parts :
-la part de Molesme : 1 000 arpents en 1219 elle était de 2 800 en 1759[1].
-La part du roi, la partie est , enclavée dans celle de l'abbaye représentait un parallélogramme de 260 arpents et la plus grande, à l'ouest était de 2 170 arpents[2].
-Les usagers
-Historiquement, les possesseurs des deux parts y avaient usage. Mais il y eut aussi l'abbaye de Montiéramey, les Templiers et à leur suite les Hospitaliers, mais aussi les habitants de Chaussepierre, Rumilly, st-Part-les-Vaudès, Courgelaine, Vaudès, Lantages, Serre, Montceaux. Les seigneurs de la Motte de Rumilly, Marolle, au prieur de Fouchères.
+la part de Molesme : 1 000 arpents en 1219 elle était de 2 800 en 1759.
+La part du roi, la partie est , enclavée dans celle de l'abbaye représentait un parallélogramme de 260 arpents et la plus grande, à l'ouest était de 2 170 arpents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rumilly</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rumilly</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les usagers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, les possesseurs des deux parts y avaient usage. Mais il y eut aussi l'abbaye de Montiéramey, les Templiers et à leur suite les Hospitaliers, mais aussi les habitants de Chaussepierre, Rumilly, st-Part-les-Vaudès, Courgelaine, Vaudès, Lantages, Serre, Montceaux. Les seigneurs de la Motte de Rumilly, Marolle, au prieur de Fouchères.
 			Cartes anciennes, forêt d'Aumont,
 			de Rumilly
 			En 1728.
